--- a/DATA_goal/Junction_Flooding_289.xlsx
+++ b/DATA_goal/Junction_Flooding_289.xlsx
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -453,7 +453,7 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
@@ -461,14 +461,14 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -655,103 +655,103 @@
         <v>41721.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>21.33</v>
+        <v>2.13</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>14.56</v>
+        <v>1.46</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44.73</v>
+        <v>4.47</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36.98</v>
+        <v>3.7</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>16.79</v>
+        <v>1.68</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>54.67</v>
+        <v>5.47</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>25.83</v>
+        <v>2.58</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>10.9</v>
+        <v>1.09</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>16.77</v>
+        <v>1.68</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>17.81</v>
+        <v>1.78</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>18.62</v>
+        <v>1.86</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>16.69</v>
+        <v>1.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>23.41</v>
+        <v>2.34</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.73</v>
+        <v>0.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>246.73</v>
+        <v>24.67</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>46.46</v>
+        <v>4.65</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>15.41</v>
+        <v>1.54</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>30.7</v>
+        <v>3.07</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>15.97</v>
+        <v>1.6</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.56</v>
+        <v>0.26</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>27.26</v>
+        <v>2.73</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>13.61</v>
+        <v>1.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.28</v>
+        <v>1.23</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>18.41</v>
+        <v>1.84</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>48.41</v>
+        <v>4.84</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>8.51</v>
+        <v>0.85</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>19.26</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41721.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>10.09</v>
+        <v>1.01</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>6.88</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.61</v>
+        <v>0.16</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.28</v>
+        <v>2.13</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.94</v>
+        <v>0.79</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>33.33</v>
+        <v>3.33</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.17</v>
+        <v>0.52</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.81</v>
+        <v>0.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.619999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.9</v>
+        <v>0.79</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>11.29</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.89</v>
       </c>
-      <c r="T3" s="4" t="n">
-        <v>112.87</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>22.21</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>7.29</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>7.78</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>8.93</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.4</v>
+        <v>3.04</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.109999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41721.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.51</v>
+        <v>1.95</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>14.2</v>
+        <v>1.42</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.43</v>
+        <v>0.14</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>42</v>
+        <v>4.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>34.72</v>
+        <v>3.47</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.35</v>
+        <v>1.53</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.67</v>
+        <v>5.77</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>23.62</v>
+        <v>2.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>10.39</v>
+        <v>1.04</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>15.56</v>
+        <v>1.56</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>16.96</v>
+        <v>1.7</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.26</v>
+        <v>1.53</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>21.65</v>
+        <v>2.16</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>225.01</v>
+        <v>22.5</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>42.64</v>
+        <v>4.26</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.09</v>
+        <v>1.41</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>28.53</v>
+        <v>2.85</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.17</v>
+        <v>1.52</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>28.09</v>
+        <v>2.81</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.45</v>
+        <v>1.24</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.11</v>
+        <v>1.11</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.04</v>
+        <v>1.3</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>52.16</v>
+        <v>5.22</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.89</v>
+        <v>0.79</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>17.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41721.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.14</v>
+        <v>2.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.54</v>
+        <v>1.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>45.66</v>
+        <v>4.57</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>37.75</v>
+        <v>3.77</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.63</v>
+        <v>1.66</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>64.62</v>
+        <v>6.46</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>25.6</v>
+        <v>2.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>11.34</v>
+        <v>1.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.94</v>
+        <v>1.69</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.43</v>
+        <v>1.84</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>19.36</v>
+        <v>1.94</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.54</v>
+        <v>1.65</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.53</v>
+        <v>2.35</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.95</v>
+        <v>1.39</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.87</v>
+        <v>0.09</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.09</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>244.48</v>
+        <v>24.45</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>46.27</v>
+        <v>4.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.07</v>
+        <v>3.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.47</v>
+        <v>1.65</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>31.29</v>
+        <v>3.13</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.49</v>
+        <v>1.35</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>11.98</v>
+        <v>1.2</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.08</v>
+        <v>1.41</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>19.31</v>
+        <v>1.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>58.63</v>
+        <v>5.86</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>8.59</v>
+        <v>0.86</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>19.09</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41721.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.88</v>
+        <v>0.29</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>12.9</v>
+        <v>1.29</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.25</v>
+        <v>0.13</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.22</v>
+        <v>0.02</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.55</v>
+        <v>0.25</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>12.35</v>
+        <v>1.24</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41721.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>19.41</v>
+        <v>1.94</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>14.36</v>
+        <v>1.44</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>42.01</v>
+        <v>4.2</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>34.72</v>
+        <v>3.47</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>54.62</v>
+        <v>5.46</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>23.5</v>
+        <v>2.35</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>10.44</v>
+        <v>1.04</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>16.95</v>
+        <v>1.69</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>17.83</v>
+        <v>1.78</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.19</v>
+        <v>1.52</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>21.6</v>
+        <v>2.16</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>12.76</v>
+        <v>1.28</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>223.85</v>
+        <v>22.38</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>42.32</v>
+        <v>4.23</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>28.48</v>
+        <v>2.85</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>26.98</v>
+        <v>2.7</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>12.89</v>
+        <v>1.29</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>17.77</v>
+        <v>1.78</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>49.18</v>
+        <v>4.92</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>7.91</v>
+        <v>0.79</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>17.53</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41721.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1.16</v>
+        <v>0.12</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>0.75</v>
+        <v>0.08</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>2.75</v>
+        <v>0.28</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>1.97</v>
+        <v>0.2</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>0.99</v>
+        <v>0.1</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>4.75</v>
+        <v>0.47</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>0.85</v>
+        <v>0.08</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>0.89</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41721.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>16.91</v>
+        <v>1.69</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>36.63</v>
+        <v>3.66</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>30.27</v>
+        <v>3.03</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>46.99</v>
+        <v>4.7</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>20.48</v>
+        <v>2.05</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>9.1</v>
+        <v>0.91</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>13.6</v>
+        <v>1.36</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>15.55</v>
+        <v>1.55</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>18.82</v>
+        <v>1.88</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.1</v>
+        <v>1.11</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>194.08</v>
+        <v>19.41</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>36.83</v>
+        <v>3.68</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>12.22</v>
+        <v>1.22</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>24.8</v>
+        <v>2.48</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>13.18</v>
+        <v>1.32</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>23.25</v>
+        <v>2.32</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>10.79</v>
+        <v>1.08</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>11.22</v>
+        <v>1.12</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>42.23</v>
+        <v>4.22</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>15.27</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41721.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.66</v>
+        <v>0.17</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>5.08</v>
+        <v>0.51</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>13.48</v>
+        <v>1.35</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.32</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>21.39</v>
+        <v>2.14</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>3.87</v>
+        <v>0.39</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>0.33</v>
+        <v>0.03</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>6.08</v>
+        <v>0.61</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>1.65</v>
+        <v>0.17</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>12.82</v>
+        <v>1.28</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.93</v>
+        <v>0.09</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_289.xlsx
+++ b/DATA_goal/Junction_Flooding_289.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,38 +444,38 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41721.34027777778</v>
+        <v>44970.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.13</v>
+        <v>1.38</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.46</v>
+        <v>0.91</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.47</v>
+        <v>2.99</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.7</v>
+        <v>2.24</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.68</v>
+        <v>1.07</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.47</v>
+        <v>3.2</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.58</v>
+        <v>1.69</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O2" s="4" t="n">
         <v>1.09</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N2" s="4" t="n">
+      <c r="P2" s="4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.54</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>24.67</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>4.84</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.85</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>1.93</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41721.34722222222</v>
+        <v>44970.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.01</v>
+        <v>0.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>2.13</v>
+        <v>0.73</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.76</v>
+        <v>0.48</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.24</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.33</v>
+        <v>1.36</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.22</v>
+        <v>0.41</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.15</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.78</v>
+        <v>0.19</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.31</v>
       </c>
       <c r="N3" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AC3" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
       <c r="AD3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.28</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.04</v>
+        <v>1.32</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.4</v>
+        <v>0.12</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.91</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41721.35416666666</v>
+        <v>44970.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.2</v>
+        <v>2.82</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.47</v>
+        <v>2.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.53</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.77</v>
+        <v>3.61</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.36</v>
+        <v>1.57</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.68</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.56</v>
+        <v>1</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.78</v>
+        <v>1.2</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.53</v>
+        <v>1.02</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.16</v>
+        <v>1.43</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.88</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>22.5</v>
+        <v>14.72</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.26</v>
+        <v>2.83</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.41</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.85</v>
+        <v>1.87</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.52</v>
+        <v>0.98</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.81</v>
+        <v>1.79</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.24</v>
+        <v>0.83</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.11</v>
+        <v>0.74</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.88</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.77</v>
+        <v>1.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.22</v>
+        <v>3.27</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.76</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41721.36111111111</v>
+        <v>44970.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.11</v>
+        <v>0.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.57</v>
+        <v>0.52</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.77</v>
+        <v>0.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.66</v>
+        <v>0.18</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.46</v>
+        <v>1.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.56</v>
+        <v>0.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.69</v>
+        <v>0.15</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.84</v>
+        <v>0.21</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.94</v>
+        <v>0.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.53</v>
+        <v>0.06</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.65</v>
+        <v>0.19</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.35</v>
+        <v>0.27</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.39</v>
+        <v>0.18</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AG5" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>24.45</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.86</v>
-      </c>
       <c r="AH5" s="4" t="n">
-        <v>1.91</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41721.36805555555</v>
+        <v>44970.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.14</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.08</v>
+        <v>7.02</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.75</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.29</v>
+        <v>20.92</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>0.24</v>
+        <v>16.77</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.11</v>
+        <v>7.45</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>1.29</v>
+        <v>26.75</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.17</v>
+        <v>11.63</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.08</v>
+        <v>5.07</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.1</v>
+        <v>7.45</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.13</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.12</v>
+        <v>8.94</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.04</v>
+        <v>2.41</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.11</v>
+        <v>7.52</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.17</v>
+        <v>10.59</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.11</v>
+        <v>6.47</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.46</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>1</v>
+        <v>107.09</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>0.38</v>
+        <v>20.88</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.1</v>
+        <v>6.94</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.25</v>
+        <v>13.87</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.13</v>
+        <v>7.32</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.03</v>
+        <v>1.24</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.55</v>
+        <v>13.11</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.09</v>
+        <v>6.13</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.09</v>
+        <v>5.5</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.11</v>
+        <v>6.46</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.13</v>
+        <v>8.75</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.24</v>
+        <v>24.07</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.05</v>
+        <v>3.85</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41721.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.46</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>22.38</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.23</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41721.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41721.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>19.41</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.53</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41721.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41721.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>22.1</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>47.95</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>39.63</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>62.57</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>26.76</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>20.36</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>24.66</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>255.9</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>48.24</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>32.57</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>17.22</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>56.55</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>19.96</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_289.xlsx
+++ b/DATA_goal/Junction_Flooding_289.xlsx
@@ -443,27 +443,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -471,11 +471,11 @@
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44970.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.38</v>
+        <v>13.8</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.91</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.99</v>
+        <v>29.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.24</v>
+        <v>22.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.66</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.2</v>
+        <v>31.97</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1</v>
+        <v>10.01</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.73</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.25</v>
+        <v>12.52</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.5</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.5</v>
+        <v>14.97</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.17</v>
+        <v>1.67</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.86</v>
+        <v>158.58</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.02</v>
+        <v>30.18</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.33</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.1</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.89</v>
+        <v>28.93</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.54</v>
+        <v>5.41</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44970.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.81</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.36</v>
+        <v>13.62</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.07</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.95</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.84</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.31</v>
+        <v>3.11</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.56</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>3.28</v>
+        <v>32.8</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.67</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.63</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.15</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.3</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44970.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.82</v>
+        <v>28.23</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.25</v>
+        <v>22.5</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1</v>
+        <v>10.05</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.61</v>
+        <v>36.13</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.81</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1</v>
+        <v>9.98</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.2</v>
+        <v>12.04</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.72</v>
+        <v>147.16</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.83</v>
+        <v>28.25</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.72</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.83</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.79</v>
+        <v>17.93</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.75</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.27</v>
+        <v>32.75</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44970.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.76</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.12</v>
+        <v>1.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.62</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.14</v>
+        <v>21.37</v>
       </c>
       <c r="U5" s="4" t="n">
+        <v>5.63</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.74</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_289.xlsx
+++ b/DATA_goal/Junction_Flooding_289.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44970.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.8</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.53</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.88</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.44</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.66</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.97</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
         <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.74</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.01</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.73</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.52</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.5</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.97</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.06</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.67</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.58</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.18</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.33</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.1</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.67</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.06</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.93</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.41</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.58</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
@@ -759,7 +759,7 @@
         <v>44970.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.25</v>
+        <v>3.251</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>1.94</v>
@@ -771,91 +771,91 @@
         <v>7.29</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.81</v>
+        <v>4.811</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>2.44</v>
+        <v>2.438</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>13.62</v>
+        <v>13.623</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>4.07</v>
+        <v>4.072</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>1.54</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.95</v>
+        <v>1.946</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.84</v>
+        <v>2.837</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.11</v>
+        <v>3.109</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.86</v>
+        <v>0.858</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.63</v>
+        <v>2.632</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>3.56</v>
+        <v>3.564</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.68</v>
+        <v>2.683</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.34</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.634</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>32.8</v>
+        <v>32.795</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>7.67</v>
+        <v>7.667</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.43</v>
+        <v>2.429</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>4.67</v>
+        <v>4.672</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.29</v>
+        <v>2.288</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.63</v>
+        <v>6.626</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.15</v>
+        <v>2.146</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>2.14</v>
+        <v>2.141</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.52</v>
+        <v>2.524</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.8</v>
+        <v>2.803</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>13.21</v>
+        <v>13.208</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.164</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.04</v>
+        <v>3.041</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44970.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.88</v>
+        <v>12.876</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>9.382999999999999</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.19</v>
+        <v>1.186</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>28.23</v>
+        <v>28.229</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.5</v>
+        <v>22.499</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.05</v>
+        <v>10.049</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.13</v>
+        <v>36.134</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.81</v>
+        <v>6.808</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.98</v>
+        <v>9.977</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.283</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.04</v>
+        <v>12.036</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.26</v>
+        <v>3.258</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.28</v>
+        <v>14.285</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.779999999999999</v>
+        <v>8.779</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.71</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>147.16</v>
+        <v>147.156</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.25</v>
+        <v>28.254</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>9.369999999999999</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.72</v>
+        <v>18.722</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.83</v>
+        <v>9.833</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.74</v>
+        <v>1.741</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>17.93</v>
+        <v>17.931</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.45</v>
+        <v>7.445</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.76</v>
+        <v>8.757999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.75</v>
+        <v>11.751</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.75</v>
+        <v>32.748</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.18</v>
+        <v>5.178</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.71</v>
+        <v>11.714</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>2.18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44970.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_289.xlsx
+++ b/DATA_goal/Junction_Flooding_289.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44970.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.32</v>
+        <v>2.319</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.548</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>5.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.69</v>
+        <v>3.691</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.76</v>
+        <v>1.764</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.22</v>
+        <v>12.215</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.91</v>
+        <v>2.909</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.23</v>
+        <v>1.233</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.51</v>
+        <v>1.514</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.08</v>
+        <v>2.076</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.28</v>
+        <v>2.284</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.67</v>
+        <v>2.668</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.85</v>
+        <v>1.848</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.3</v>
+        <v>0.302</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.37</v>
+        <v>21.373</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.63</v>
+        <v>5.628</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.74</v>
+        <v>1.735</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.62</v>
+        <v>3.618</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.776</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>1.533</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.5</v>
+        <v>1.497</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.74</v>
+        <v>1.744</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.11</v>
+        <v>2.106</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.74</v>
+        <v>11.739</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.857</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.18</v>
+        <v>2.175</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44970.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>20.92</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.59</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>107.09</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.87</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7.32</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.11</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>24.07</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_289.xlsx
+++ b/DATA_goal/Junction_Flooding_289.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44970.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.319</v>
+        <v>2.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.548</v>
+        <v>1.55</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.625</v>
+        <v>0.63</v>
       </c>
       <c r="E5" s="4" t="n">
         <v>5.24</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.691</v>
+        <v>3.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.764</v>
+        <v>1.76</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>12.215</v>
+        <v>12.22</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.909</v>
+        <v>2.91</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.233</v>
+        <v>1.23</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.514</v>
+        <v>1.51</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>2.076</v>
+        <v>2.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.284</v>
+        <v>2.28</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.623</v>
+        <v>0.62</v>
       </c>
       <c r="O5" s="4" t="n">
         <v>1.88</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>2.668</v>
+        <v>2.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.848</v>
+        <v>1.85</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.66</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.302</v>
+        <v>0.3</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>21.373</v>
+        <v>21.37</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>5.628</v>
+        <v>5.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.735</v>
+        <v>1.74</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>3.618</v>
+        <v>3.62</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.776</v>
+        <v>1.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.556</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.641</v>
+        <v>5.64</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.533</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.497</v>
+        <v>1.5</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.744</v>
+        <v>1.74</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.106</v>
+        <v>2.11</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>11.739</v>
+        <v>11.74</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.857</v>
+        <v>0.86</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.175</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44970.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>20.92</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.75</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>8.369999999999999</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.59</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>107.09</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.87</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.68</v>
+        <v>2.18</v>
       </c>
     </row>
   </sheetData>
